--- a/Лаба 2/Результаты/Полученные результаты/Проверка простой гипотезы/Файлы построенных таблиц по результатам/Крамера-Мизиса-Смирнова_result.xlsx
+++ b/Лаба 2/Результаты/Полученные результаты/Проверка простой гипотезы/Файлы построенных таблиц по результатам/Крамера-Мизиса-Смирнова_result.xlsx
@@ -606,7 +606,7 @@
         <v>0.0815</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6829</v>
+        <v>0.6830000000000001</v>
       </c>
     </row>
     <row r="13">
@@ -648,7 +648,7 @@
         <v>0.1616</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3559</v>
+        <v>0.356</v>
       </c>
     </row>
     <row r="16">
